--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{AAEFBC5A-324D-4A19-9B76-62E528C19429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D123158-5DB6-4123-B7CB-AF6DC9CCBC29}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{AAEFBC5A-324D-4A19-9B76-62E528C19429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{114C3052-1D51-4C82-8E88-8425E5D68319}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,6 +88,3795 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.5760703399619532E-2"/>
+          <c:y val="4.4021929691221026E-2"/>
+          <c:w val="0.88842535252488453"/>
+          <c:h val="0.79016953961835856"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>DLSP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>dados!$A$2:$A$235</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="234"/>
+                <c:pt idx="0">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37347</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37377</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37408</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37561</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37591</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37622</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37681</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37712</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37742</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37803</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37834</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37865</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37987</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38078</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38108</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38139</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38169</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38231</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38261</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38292</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38322</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38353</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38384</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>38412</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>38443</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>38473</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>38504</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>38534</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>38565</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>38596</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>38626</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>38657</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>38687</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>38718</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>38749</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>38777</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>38808</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>38838</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>38869</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>38899</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>38930</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>38961</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>38991</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>39022</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39052</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>39083</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>39114</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>39142</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>39173</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>39203</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>39234</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>39264</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>39295</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>39326</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>39356</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>39387</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>39417</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>39448</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>39479</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>39508</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>39539</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>39569</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39600</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>39630</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>39661</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>39692</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>39722</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>39753</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>39783</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>39814</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>39845</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>39873</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>39904</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>39934</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>39965</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>39995</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>40026</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>40057</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>40087</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>40118</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>40148</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>40179</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>40210</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>40238</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>40269</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>40299</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>40330</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>40360</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>40391</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>40422</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>40452</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>40483</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>43709</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>44317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>dados!$C$2:$C$235</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="234"/>
+                <c:pt idx="0">
+                  <c:v>51.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.91</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>62.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59.93</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59.91</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>54.43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54.96</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54.42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55.06</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55.43</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54.73</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53.91</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54.36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>54.26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.03</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>53.19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>52.99</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>53.53</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>52.83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52.02</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>51.37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>50.86</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50.76</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50.06</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50.19</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>49.57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>49.32</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49.31</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48.29</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>47.91</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>48.04</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48.15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>47.98</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47.65</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.53</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47.43</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>47.92</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>47.78</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>47.72</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>47.66</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>47.09</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46.96</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>46.81</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>46.59</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>46.57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>46.19</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>46.02</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>46.49</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45.94</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45.85</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45.81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45.09</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45.24</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44.74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44.1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44.59</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44.59</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44.55</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43.71</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42.82</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43.03</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42.89</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42.68</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41.98</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>39.96</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>38.31</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>36.96</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>37.57</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>38.04</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>38.04</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>38.65</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>39.65</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>39.979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>40.68</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>40.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>41.56</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>41.46</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>40.99</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>40.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>39.81</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>39.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>39.479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>38.979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>38.89</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>38.76</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>38.22</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>37.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>37.74</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>37.979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>37.56</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>37.479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>37.53</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>37.42</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>37.28</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>37.08</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>36.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>34.67</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>35.64</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>34.76</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>34.47</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>35.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>35.19</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>34.26</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>33.49</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>32.74</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>32.78</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>32.51</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>32.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>32.46</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>32.19</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>32.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>32.57</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>32.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>31.53</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>31.19</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>30.79</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>30.58</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>31.51</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>31.61</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>30.58</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>30.35</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>30.78</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>30.76</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>31.08</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>31.48</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>31.62</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>32.15</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>32.07</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>32.22</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>32.17</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>32.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>31.59</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>32.35</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>32.39</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>33.229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>32.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>32.47</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>32.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>33.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>33.89</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>35.64</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>35.33</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>36.270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>38.33</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>38.92</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>39.14</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>41.35</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>41.89</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>42.75</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>43.64</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>43.95</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44.09</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>46.14</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>46.41</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>47.53</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>47.49</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>48.01</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>48.43</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>49.68</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>50.75</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>50.54</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>50.84</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>51.37</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>51.44</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>51.62</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>51.84</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>51.22</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>50.66</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>50.73</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>51.34</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>50.37</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>51.34</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>52.17</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>52.77</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>53.12</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>53.08</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>52.97</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>52.94</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>53.11</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>53.68</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>54.12</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>53.19</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>53.49</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>53.95</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>53.62</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>54.57</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>53.11</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>52.56</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>50.73</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>54.08</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>56.74</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>58.82</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>59.43</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>60.16</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>60.05</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>61.58</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>62.7</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>61.25</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>61.23</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>60.41</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>59.77</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>59.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-454A-40A7-A3A0-E3C32CA3E036}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="536804512"/>
+        <c:axId val="536802216"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Superávit Primário</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>dados!$A$2:$A$235</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="234"/>
+                <c:pt idx="0">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37347</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37377</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37408</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37561</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37591</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37622</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37681</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37712</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37742</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37803</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37834</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37865</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37987</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38078</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38108</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38139</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38169</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38231</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38261</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38292</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38322</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38353</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38384</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>38412</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>38443</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>38473</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>38504</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>38534</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>38565</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>38596</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>38626</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>38657</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>38687</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>38718</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>38749</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>38777</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>38808</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>38838</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>38869</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>38899</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>38930</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>38961</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>38991</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>39022</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39052</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>39083</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>39114</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>39142</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>39173</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>39203</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>39234</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>39264</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>39295</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>39326</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>39356</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>39387</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>39417</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>39448</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>39479</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>39508</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>39539</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>39569</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39600</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>39630</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>39661</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>39692</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>39722</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>39753</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>39783</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>39814</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>39845</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>39873</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>39904</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>39934</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>39965</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>39995</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>40026</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>40057</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>40087</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>40118</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>40148</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>40179</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>40210</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>40238</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>40269</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>40299</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>40330</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>40360</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>40391</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>40422</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>40452</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>40483</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>40513</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>40544</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>40575</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>40725</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>40756</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>40817</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>40848</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>40878</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>40940</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>40969</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41030</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41061</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>41122</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>41183</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>43709</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>44317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>dados!$B$2:$B$235</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="234"/>
+                <c:pt idx="0">
+                  <c:v>-4.2850215941537844</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3657492605103636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2656491781720192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6926042279646114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7565537160082698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4822120151352665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4355103204876831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4042075855730012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0360868262231406</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.558895873189396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8524083307918704</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75558997577346199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.4559586367447475</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.638835485836724</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9179150148888358</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.9761303045269862</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8405474010896237</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6679622193347274</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.55103360015768876</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9236339372448972</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7176635174569157</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5337069651413104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7932708475471175</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5373615959969906</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.8738919151581195</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0104317557032232</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.9979987582361352</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6507068030388243</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5418049503707776</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.3642294711750367</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.4233668113766478</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.113480176622752</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0452550524917705</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.8570786721513035</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.780571901029985</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99316928694364459</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.5554593012309597</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.1226029579289722</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2545114672162567</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.7459159382841491</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.1752223317787838</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5659446062940889</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.1878165741384712</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.584530000755132</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.019657499789048</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5351420549535115</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.0939196439426375</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.65609655303409486</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.0199556529848586</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.1852096949421442</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.0213388225828681</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.8323728836725661</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.9368169373065856</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.3454096868567571</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.0392888197681338</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.462557688293818</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.9890238206445585</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.1867098256051942</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.1970764221313406</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.15322397497589021</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2.6158626412919097</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.4735268123142742</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.7264098026727657</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.7760083827959658</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.5519259419370286</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.8725889774637949</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.2701707727680649</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.2079222868149917</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.5588179854318223</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7358518656035417E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.08283644582073</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.8616898157715918</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-3.3211141911011701</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.475293163570119</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.2422515260143383</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.380669057159543</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.7206561862929819</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.1771842565643413</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.9800381426221034</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.5906698674706075</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.3279119373842323</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.3123789677012225</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.2998619718068856</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-1.6324685035065063</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-7.5621716870101423</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.591568906742634</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.45542131348142489</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.5275150290893595</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.8648039088018158</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.13674333874229372</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.2242115056429192</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.52888098531252059</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.1900864302684309</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-2.7594396427206735</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.7214326385799619</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.4953534867452509</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.61259085000006386</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.7784763257300495</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.41337374317121578</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-1.4648611708237347</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.3663919631893648</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.18432924521495214</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.19136979418620331</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.21836078571263146</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.1558520554847285</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.833081952246852</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.2372333721197868</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.24810296222466141</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.9858656647818078</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4.2221608883675508</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.75421329957799865</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.5534125788461823</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.435554089577554</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.1032771660028859</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.80493835944463</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.9740505542496041</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.67302377150496284</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.4642874408312836</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.0107720169875254</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.187253734137369</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.37839600053671746</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5.6075488854862359</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.460634693577409</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.8807638179931534</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.8335464032911135</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.36791796807115712</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.1740878181834567</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.9075499524056454</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.32926039116027039</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.27080733496865744</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.2249571748458989</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-1.1313967485918497</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.5436534415828946</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6.300903086500302</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-1.6747900054495231</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-9.8180143222609192E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.5228070494826897</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.2640956601129156</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.18352732244072037</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.74370179601787179</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-7.3827156743019012E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-2.4255923148111349</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.0518978085675756</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6.053702410618766</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.0216982129994512</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.6576385564142901</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.72670553216137601</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.62310528131491738</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.3923309222863547</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-2.3886726766885475</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.57635764814291901</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.53515304146233167</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-2.191344951825613</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-4.2879319143332175</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.60095582967392069</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-1.4440355433402821</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.18778035241067373</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.0758708494263058</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-1.5906481327845248</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.22029526638368108</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.0064409967375583</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-1.7408976509554883</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-1.8057472339237757</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-1.5190108491689402</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-1.1382179012526676</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-1.4484426040075618</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-2.5497971153455805</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-4.1517033396452501</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-11.79700301817005</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.9995007213504414</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-5.1657994907734448</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-1.5097705018176937</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.7293905720352696</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-3.3079054178128993</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-1.81909238704686</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-3.6106700510035541</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-3.8047859909782442</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-4.9382365797070369</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>7.7770712114232365</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-7.1117578239683858</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-11.023483967726801</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.410298192502371</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-5.1185542175231173</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-2.0665322024205772</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.346283560772453</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-5.356968967042806</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-3.5598452440086943</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-3.6065826642811869</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-1.8122918237631938</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-4.2911891298637492</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.91521018948334598</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.22079452961751811</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-3.5358106535778031</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5.4586507124903232</c:v>
+                </c:pt>
+                <c:pt idx="194" formatCode="0.00">
+                  <c:v>-3.5565189761093534</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="0.00">
+                  <c:v>-4.2564156565582847</c:v>
+                </c:pt>
+                <c:pt idx="196" formatCode="0.00">
+                  <c:v>1.5076677831579777</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="0.00">
+                  <c:v>-1.9627608352423724</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="0.00">
+                  <c:v>-2.7499266348672742</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="0.00">
+                  <c:v>-1.2485774784639618</c:v>
+                </c:pt>
+                <c:pt idx="200" formatCode="0.00">
+                  <c:v>-3.2709788950155438</c:v>
+                </c:pt>
+                <c:pt idx="201" formatCode="0.00">
+                  <c:v>-4.0563490645777645</c:v>
+                </c:pt>
+                <c:pt idx="202" formatCode="0.00">
+                  <c:v>1.5761316115271311</c:v>
+                </c:pt>
+                <c:pt idx="203" formatCode="0.00">
+                  <c:v>-2.6829195666069805</c:v>
+                </c:pt>
+                <c:pt idx="204" formatCode="0.00">
+                  <c:v>-5.1731723448941249</c:v>
+                </c:pt>
+                <c:pt idx="205" formatCode="0.00">
+                  <c:v>5.0991196739168272</c:v>
+                </c:pt>
+                <c:pt idx="206" formatCode="0.00">
+                  <c:v>-3.1336581213857531</c:v>
+                </c:pt>
+                <c:pt idx="207" formatCode="0.00">
+                  <c:v>-3.5445331059820737</c:v>
+                </c:pt>
+                <c:pt idx="208" formatCode="0.00">
+                  <c:v>1.0727345685273262</c:v>
+                </c:pt>
+                <c:pt idx="209" formatCode="0.00">
+                  <c:v>-2.3893669344997024</c:v>
+                </c:pt>
+                <c:pt idx="210" formatCode="0.00">
+                  <c:v>-1.9384108896259564</c:v>
+                </c:pt>
+                <c:pt idx="211" formatCode="0.00">
+                  <c:v>-0.92535139669857081</c:v>
+                </c:pt>
+                <c:pt idx="212" formatCode="0.00">
+                  <c:v>-2.6729315589885325</c:v>
+                </c:pt>
+                <c:pt idx="213" formatCode="0.00">
+                  <c:v>-3.3373860895906931</c:v>
+                </c:pt>
+                <c:pt idx="214" formatCode="0.00">
+                  <c:v>1.3536650039797857</c:v>
+                </c:pt>
+                <c:pt idx="215" formatCode="0.00">
+                  <c:v>-2.6092705473181792</c:v>
+                </c:pt>
+                <c:pt idx="216" formatCode="0.00">
+                  <c:v>-2.2646231025316386</c:v>
+                </c:pt>
+                <c:pt idx="217" formatCode="0.00">
+                  <c:v>7.1443559432964561</c:v>
+                </c:pt>
+                <c:pt idx="218" formatCode="0.00">
+                  <c:v>-4.240468445492227</c:v>
+                </c:pt>
+                <c:pt idx="219" formatCode="0.00">
+                  <c:v>-3.4284195631825729</c:v>
+                </c:pt>
+                <c:pt idx="220" formatCode="0.00">
+                  <c:v>-17.035004123153143</c:v>
+                </c:pt>
+                <c:pt idx="221" formatCode="0.00">
+                  <c:v>-22.639968076969971</c:v>
+                </c:pt>
+                <c:pt idx="222" formatCode="0.00">
+                  <c:v>-32.288626382394305</c:v>
+                </c:pt>
+                <c:pt idx="223" formatCode="0.00">
+                  <c:v>-13.929641162256306</c:v>
+                </c:pt>
+                <c:pt idx="224" formatCode="0.00">
+                  <c:v>-15.278608255661407</c:v>
+                </c:pt>
+                <c:pt idx="225" formatCode="0.00">
+                  <c:v>-12.047838978760032</c:v>
+                </c:pt>
+                <c:pt idx="226" formatCode="0.00">
+                  <c:v>-0.51775425066846792</c:v>
+                </c:pt>
+                <c:pt idx="227" formatCode="0.00">
+                  <c:v>-2.7377317034986985</c:v>
+                </c:pt>
+                <c:pt idx="228" formatCode="0.00">
+                  <c:v>-6.525074712795778</c:v>
+                </c:pt>
+                <c:pt idx="229" formatCode="General">
+                  <c:v>6.6859993526913266</c:v>
+                </c:pt>
+                <c:pt idx="230" formatCode="General">
+                  <c:v>-3.1690859437779633</c:v>
+                </c:pt>
+                <c:pt idx="231" formatCode="General">
+                  <c:v>0.28136814693395173</c:v>
+                </c:pt>
+                <c:pt idx="232" formatCode="General">
+                  <c:v>2.4406471739223137</c:v>
+                </c:pt>
+                <c:pt idx="233" formatCode="General">
+                  <c:v>-2.9974354732912598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-454A-40A7-A3A0-E3C32CA3E036}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="653298632"/>
+        <c:axId val="653298960"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="536804512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536802216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+        <c:majorUnit val="12"/>
+        <c:majorTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="536802216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536804512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="653298960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="653298632"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="653298632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="653298960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:dateAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5714ED2-CD29-41B7-A564-F62AD0630896}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,8 +4202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A4E9C4-C46B-4BCF-8C43-2F962156096E}">
   <dimension ref="A1:E235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="X207" sqref="X207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4416,5 +8205,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>